--- a/chess_openings_stats.xlsx
+++ b/chess_openings_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="Questa_cartella_di_lavoro"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tello\Desktop\spring23\work dir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tello\Documents\GitHub\Data-Literacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625496E0-D8BF-4602-A886-2960007AF846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108A97B4-3CDF-4493-9E68-63E8643579A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="1200" windowWidth="18585" windowHeight="9015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all games" sheetId="1" r:id="rId1"/>
@@ -1719,11 +1719,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>elo / frequency</a:t>
+              <a:t>Frequenza  delle tre aperture più</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> of the three most frequent openings</a:t>
+              <a:t> comuni per punteggio ELO</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -1765,10 +1765,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16087162438028579"/>
+          <c:x val="0.11597601149492162"/>
           <c:y val="0.18460682643919166"/>
-          <c:w val="0.6574098571011957"/>
-          <c:h val="0.54487121437534769"/>
+          <c:w val="0.7715194315581555"/>
+          <c:h val="0.56414958293169781"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2105,6 +2105,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>intervallo ELO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2123,7 +2178,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-900000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2191,11 +2246,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>number</a:t>
+                  <a:t>numero</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> of played games</a:t>
+                  <a:t> di partite</a:t>
                 </a:r>
                 <a:endParaRPr lang="it-IT"/>
               </a:p>
@@ -2376,15 +2431,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>elo / frequency of "High Elo </a:t>
+              <a:t>Aperture ad "Alto ELO"</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Opening"</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2424,10 +2472,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16087162438028579"/>
+          <c:x val="0.10613485298217809"/>
           <c:y val="0.15912147773981083"/>
-          <c:w val="0.6574098571011957"/>
-          <c:h val="0.56457386222948558"/>
+          <c:w val="0.77632074086448055"/>
+          <c:h val="0.62761755039401435"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2763,6 +2811,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>intervallo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> ELO</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2781,7 +2889,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-900000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2848,14 +2956,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>number</a:t>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>numero di partite</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> of played games</a:t>
-                </a:r>
-                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3041,28 +3151,8 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>elo / frequency of "Low Elo </a:t>
+              <a:t>Aperture a "Basso ELO"</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Opening"</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3102,10 +3192,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16087162438028579"/>
-          <c:y val="0.11509636582649606"/>
-          <c:w val="0.6574098571011957"/>
-          <c:h val="0.59491969866791161"/>
+          <c:x val="0.1054338058204735"/>
+          <c:y val="0.13120612058161424"/>
+          <c:w val="0.72738472722277903"/>
+          <c:h val="0.63230294747915861"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3476,6 +3566,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>intervallo ELO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3494,7 +3639,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-900000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3561,14 +3706,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>number</a:t>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>numero di partite</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> of played games</a:t>
-                </a:r>
-                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3646,6 +3793,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8311964319596401"/>
+          <c:y val="0.30029099274515447"/>
+          <c:w val="0.16599064570914396"/>
+          <c:h val="0.43902723819103096"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3747,7 +3904,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t>Confronto aperture più comuni. Low e High elo</a:t>
+              <a:t>Confronto aperture più comuni Low e High elo</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -3757,8 +3914,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.140081692330223"/>
-          <c:y val="1.920768065239568E-2"/>
+          <c:x val="0.13912994992419056"/>
+          <c:y val="2.5610240869860905E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4290,12 +4447,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>aperture</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> (più a destra implica meno comune)</a:t>
+                  <a:rPr lang="it-IT" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>aperture (più a destra implica meno comune)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4553,7 +4708,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="70" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="50000"/>
@@ -4566,10 +4721,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
+              <a:rPr lang="it-IT"/>
               <a:t>Confronto aperture meno comuni. Low e High elo</a:t>
             </a:r>
-            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4594,7 +4748,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="70" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="50000"/>
@@ -5232,7 +5386,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DAB0-4644-A177-F19164CE4EA5}"/>
+              <c16:uniqueId val="{00000001-611C-4EBD-8C65-4CAFC9B84D78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5852,7 +6006,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DAB0-4644-A177-F19164CE4EA5}"/>
+              <c16:uniqueId val="{00000003-611C-4EBD-8C65-4CAFC9B84D78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5895,7 +6049,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="50000"/>
@@ -5909,11 +6063,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>aperture</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> (più a destra implica meno comune)</a:t>
+                  <a:t>aperture (più a destra implica meno comune)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5939,7 +6089,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
                       <a:lumMod val="50000"/>
@@ -5990,7 +6140,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="50000"/>
@@ -6022,7 +6172,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
                       <a:lumMod val="50000"/>
@@ -6054,7 +6204,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="50000"/>
@@ -6096,7 +6246,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="50000"/>
@@ -6137,7 +6287,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr u="sng"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -8942,16 +9092,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>90764</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>505945</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8978,16 +9128,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>44261</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17369</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>115423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>132230</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9016,16 +9166,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>90765</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>162485</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>593910</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9054,16 +9204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>501183</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>445713</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>134752</xdr:rowOff>
+      <xdr:colOff>322730</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>27456</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9098,22 +9248,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>277092</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108548</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Grafico 15">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32553E6D-2A15-4750-B3AA-87C5A76158B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEB5F2D-F556-4FE6-8212-92696B7570CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9424,7 +9574,7 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:Q482"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="O480" sqref="O480"/>
     </sheetView>
   </sheetViews>
@@ -30625,8 +30775,8 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD45" sqref="AD45:AD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33119,6 +33269,18 @@
   </mergeCells>
   <conditionalFormatting sqref="D3:L32">
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:L53">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33153,18 +33315,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:L53">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -33174,8 +33324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E37818-AAD1-467C-9A72-EA4BE1836C34}">
   <dimension ref="B1:Q186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/chess_openings_stats.xlsx
+++ b/chess_openings_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tello\Documents\GitHub\Data-Literacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108A97B4-3CDF-4493-9E68-63E8643579A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69755BC-CEA9-418A-9228-2F6C5BF849A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="1200" windowWidth="18585" windowHeight="9015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="1395" windowWidth="18585" windowHeight="9015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all games" sheetId="1" r:id="rId1"/>
@@ -1541,6 +1541,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -9093,13 +9094,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>505945</xdr:colOff>
+      <xdr:colOff>505947</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>177616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
@@ -9129,13 +9130,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>17369</xdr:colOff>
+      <xdr:colOff>17370</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>115423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
@@ -9167,13 +9168,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>89085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>168089</xdr:rowOff>
     </xdr:to>
@@ -9574,8 +9575,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:Q482"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O480" sqref="O480"/>
+    <sheetView tabSelected="1" topLeftCell="A481" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30775,17 +30776,22 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD45" sqref="AD45:AD46"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="25.42578125" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -33316,7 +33322,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/chess_openings_stats.xlsx
+++ b/chess_openings_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tello\Documents\GitHub\Data-Literacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69755BC-CEA9-418A-9228-2F6C5BF849A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E1027-4CEA-4163-98E0-94C5642B3040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="1395" windowWidth="18585" windowHeight="9015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all games" sheetId="1" r:id="rId1"/>
@@ -2418,7 +2418,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2450,7 +2450,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2476,22 +2476,22 @@
           <c:x val="0.10613485298217809"/>
           <c:y val="0.15912147773981083"/>
           <c:w val="0.77632074086448055"/>
-          <c:h val="0.62761755039401435"/>
+          <c:h val="0.54843736296713785"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'openings of 75% of games'!$C$10</c:f>
+              <c:f>'openings of 75% of games'!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A04</c:v>
+                  <c:v>A01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2499,7 +2499,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2545,75 +2545,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'openings of 75% of games'!$D$10:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>572</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>682</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>781</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>861</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1347</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-246D-45B2-AB65-7A26A7994A61}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'openings of 75% of games'!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
               <c:f>'openings of 75% of games'!$D$13:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2657,7 +2588,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'openings of 75% of games'!$C$12</c:f>
@@ -2681,6 +2612,41 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'openings of 75% of games'!$D$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>577-1522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1522-1685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1685-1798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1798-1894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1894-1983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1983-2071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2071-2166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2166-2295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2295-3017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'openings of 75% of games'!$D$12:$L$12</c:f>
@@ -2726,7 +2692,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'openings of 75% of games'!$C$22</c:f>
@@ -2750,6 +2716,41 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'openings of 75% of games'!$D$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>577-1522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1522-1685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1685-1798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1798-1894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1894-1983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1983-2071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2071-2166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2166-2295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2295-3017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'openings of 75% of games'!$D$22:$L$22</c:f>
@@ -2819,7 +2820,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2833,13 +2834,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>intervallo</a:t>
+                  <a:t>intervallo ELO</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> ELO</a:t>
-                </a:r>
-                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2856,7 +2852,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2879,22 +2875,17 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-900000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-1500000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2944,7 +2935,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2957,14 +2948,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="it-IT"/>
                   <a:t>numero di partite</a:t>
                 </a:r>
               </a:p>
@@ -2983,7 +2967,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3015,7 +2999,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3057,7 +3041,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3097,7 +3081,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr u="sng"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -3194,9 +3178,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1054338058204735"/>
-          <c:y val="0.13120612058161424"/>
-          <c:w val="0.72738472722277903"/>
-          <c:h val="0.63230294747915861"/>
+          <c:y val="0.14731602990946319"/>
+          <c:w val="0.68769283339028409"/>
+          <c:h val="0.55175340083991409"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3640,7 +3624,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-900000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-1500000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3798,10 +3782,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.8311964319596401"/>
-          <c:y val="0.30029099274515447"/>
-          <c:w val="0.16599064570914396"/>
-          <c:h val="0.43902723819103096"/>
+          <c:x val="0.79944306466533877"/>
+          <c:y val="0.18215148896154087"/>
+          <c:w val="0.19245189062148399"/>
+          <c:h val="0.63771604614622213"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9205,14 +9189,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>501183</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1748118</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>60793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>322730</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>27456</xdr:rowOff>
     </xdr:to>
@@ -9249,13 +9233,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>277092</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>108548</xdr:rowOff>
     </xdr:to>
@@ -9575,7 +9559,7 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:Q482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A340" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B481"/>
     </sheetView>
   </sheetViews>
@@ -30776,8 +30760,8 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:O46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC54" sqref="AC54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33331,8 +33315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E37818-AAD1-467C-9A72-EA4BE1836C34}">
   <dimension ref="B1:Q186"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView topLeftCell="A162" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N184" sqref="N184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
